--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1204,15 +1204,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1223,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
